--- a/iselUssSyncV2/OutputWSL/20220517_1126_D60L474W90Q8.8U0.19H59.4G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1126_D60L474W90Q8.8U0.19H59.4G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.059120074401234318</v>
       </c>
       <c r="G2" s="0">
-        <v>0.063816507936507949</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.065296334661354594</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0032963346613545923</v>
+      </c>
       <c r="I2" s="0">
         <v>0.028298503675599079</v>
       </c>
       <c r="J2" s="0">
-        <v>0.020922063492063488</v>
+        <v>0.01822541010560931</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.24741078045615406</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.73344657720470918</v>
+        <v>0.90210958123211726</v>
       </c>
       <c r="AA2" s="0">
         <v>0.20569387441661249</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.7205978787614713</v>
       </c>
-      <c r="AG2" s="0">
-        <v>11.955421693229521</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>6.5579817271383192</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>14.676019571990992</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
